--- a/CashFlow/PAYC_cashflow.xlsx
+++ b/CashFlow/PAYC_cashflow.xlsx
@@ -622,19 +622,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>4000000.0</v>
+        <v>-41000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>4000000.0</v>
+        <v>-190000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>3067000.0</v>
+        <v>-588000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>1830000.0</v>
+        <v>-138000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>819000.0</v>
+        <v>-403000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>-431000.0</v>
@@ -830,19 +830,19 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>1529000.0</v>
+        <v>26000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>5240000.0</v>
+        <v>24000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>4732000.0</v>
+        <v>20000000.0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>6455000.0</v>
+        <v>16298000.0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>11617000.0</v>
+        <v>15868000.0</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>15145000.0</v>
